--- a/data/income_statement/3digits/total/324_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/324_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>324-Manufacture of games and toys</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>324-Manufacture of games and toys</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>150110.52584</v>
@@ -968,7 +874,7 @@
         <v>347068.09029</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>395922.2131699999</v>
+        <v>395922.21317</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>527152.72806</v>
@@ -977,16 +883,21 @@
         <v>667257.5237500001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>883777.8309500001</v>
+        <v>884204.9760999999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1020645.3317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1022221.41911</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1439582.392</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>117587.39399</v>
@@ -1007,7 +918,7 @@
         <v>289421.23505</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>333732.96863</v>
+        <v>333732.9686300001</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>442012.88847</v>
@@ -1016,16 +927,21 @@
         <v>567004.46658</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>729996.3332100001</v>
+        <v>730384.44435</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>809388.67252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>810902.0253900001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1125353.44</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>30968.35251</v>
@@ -1043,28 +959,33 @@
         <v>37140.00711</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>54330.38379</v>
+        <v>54330.38379000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>58300.13834999999</v>
+        <v>58300.13835</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>75645.86492000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>89284.28674000001</v>
+        <v>89284.28674</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>138459.22067</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>187007.92247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>187049.60946</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>277056.598</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1554.77934</v>
@@ -1079,7 +1000,7 @@
         <v>3023.95323</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4336.45986</v>
+        <v>4336.459859999999</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>3316.47145</v>
@@ -1094,22 +1015,27 @@
         <v>10968.77043</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>15322.27707</v>
+        <v>15361.31108</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>24248.73671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>24269.78426</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>37172.354</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>4905.41329</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>6134.588</v>
+        <v>6134.588000000001</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>10621.05089</v>
@@ -1136,13 +1062,18 @@
         <v>26111.46888</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>27630.04735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>27405.44138</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>36031.496</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>3128.41792</v>
@@ -1151,16 +1082,16 @@
         <v>3651.59599</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>7187.069280000001</v>
+        <v>7187.06928</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9300.384600000001</v>
+        <v>9300.384599999999</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>2834.42834</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5388.617689999999</v>
+        <v>5388.61769</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>5491.89818</v>
@@ -1175,13 +1106,18 @@
         <v>16617.67675</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>17722.30866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17729.97912</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>24922.89</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1725.66104</v>
@@ -1205,7 +1141,7 @@
         <v>3330.22823</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>5348.810050000001</v>
+        <v>5348.81005</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>7697.71001</v>
@@ -1214,13 +1150,18 @@
         <v>9001.61334</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>8941.917589999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8709.641160000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>8774.641</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>51.33433</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>965.8211</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>2333.965</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>145205.11255</v>
@@ -1289,16 +1235,21 @@
         <v>650441.6536000001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>857666.36207</v>
+        <v>858093.50722</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>993015.2843499999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>994815.97773</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1403550.896</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>110854.1553</v>
@@ -1328,16 +1279,21 @@
         <v>511363.70244</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>676442.49023</v>
+        <v>676775.53139</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>764342.7363299999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>768651.2003499999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1099124.201</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>72553.04943000001</v>
@@ -1367,16 +1323,21 @@
         <v>423493.84552</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>528227.6981500001</v>
+        <v>528495.7940600001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>655969.45601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>659461.8115999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>973599.775</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>36449.76929</v>
@@ -1388,7 +1349,7 @@
         <v>58799.53069</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>41160.60198</v>
+        <v>41160.60198000001</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>59998.06242</v>
@@ -1403,19 +1364,24 @@
         <v>68236.98037999999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>74612.45548999999</v>
+        <v>74612.45549000001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>135305.32173</v>
+        <v>135369.63885</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>90017.33637999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>90482.68681999999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>97776.848</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1838.38594</v>
@@ -1427,7 +1393,7 @@
         <v>2359.0728</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4437.664690000001</v>
+        <v>4437.66469</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>4102.1593</v>
@@ -1439,22 +1405,27 @@
         <v>5410.28267</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7514.21772</v>
+        <v>7514.217720000001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>12578.82903</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>12461.27218</v>
+        <v>12461.90031</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>15900.85645</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16251.61444</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>25155.72</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>12.95064</v>
@@ -1466,7 +1437,7 @@
         <v>79.30842999999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>46.31312999999999</v>
+        <v>46.31313000000001</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>33.16</v>
@@ -1489,17 +1460,22 @@
       <c r="M18" s="48" t="n">
         <v>2455.08749</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2591.858</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>34350.95725</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>44775.6541</v>
+        <v>44775.65410000001</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>53863.91336999999</v>
@@ -1508,7 +1484,7 @@
         <v>59922.86495</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>69116.87669999999</v>
+        <v>69116.87670000001</v>
       </c>
       <c r="H19" s="47" t="n">
         <v>73807.37078</v>
@@ -1523,16 +1499,21 @@
         <v>139077.95116</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>181223.87184</v>
+        <v>181317.97583</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>228672.54802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>226164.77738</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>304426.695</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>26871.79855</v>
@@ -1553,25 +1534,30 @@
         <v>53416.93734</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>63397.82734</v>
+        <v>63403.0514</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>95564.80095999999</v>
+        <v>95565.09513</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>99587.76427999999</v>
+        <v>99587.76428</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>127737.18774</v>
+        <v>128596.06737</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>149669.69097</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>147950.83945</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>190053.434</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>113.87316</v>
@@ -1606,14 +1592,19 @@
       <c r="M21" s="48" t="n">
         <v>824.7160799999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2178.206</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8876.270860000001</v>
+        <v>8876.270859999999</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>10866.96869</v>
@@ -1640,16 +1631,21 @@
         <v>39115.10056</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>52262.64581</v>
+        <v>52265.3889</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>61530.06662000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>61543.36819000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>83006.539</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>17881.65453</v>
@@ -1670,28 +1666,33 @@
         <v>34765.55898</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>44490.5435</v>
+        <v>44495.76756</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>64019.76489</v>
+        <v>64020.05906000001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>60291.38011999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>74348.31114000001</v>
+        <v>75204.44768</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>87314.90827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>85582.75518000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>104868.689</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>7479.1587</v>
+        <v>7479.158700000001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>13329.55679</v>
@@ -1709,28 +1710,33 @@
         <v>20390.43344</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>26268.3286</v>
+        <v>26263.10454</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>30862.15968</v>
+        <v>30861.86551</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>39490.18688</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>53486.6841</v>
+        <v>52721.90845999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>79002.85704999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>78213.93793</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>114373.261</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>4648.48601</v>
+        <v>4648.486010000001</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>3050.08138</v>
@@ -1739,10 +1745,10 @@
         <v>3740.14087</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>4915.871510000001</v>
+        <v>4915.87151</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3407.590729999999</v>
+        <v>3407.59073</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>3421.94164</v>
@@ -1751,7 +1757,7 @@
         <v>9214.752849999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>8476.49267</v>
+        <v>8848.12959</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>32764.83229</v>
@@ -1760,13 +1766,18 @@
         <v>37768.63971</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>21199.08284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>21191.71384</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>55938.348</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>754.59662</v>
+        <v>754.5966200000001</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>112.96478</v>
@@ -1862,7 +1883,7 @@
         <v>340.80508</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>413.85397</v>
+        <v>413.8539699999999</v>
       </c>
       <c r="I28" s="48" t="n">
         <v>88.35263</v>
@@ -1871,7 +1892,7 @@
         <v>277.95383</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>862.3744499999999</v>
+        <v>862.3744499999998</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>605.3656500000001</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>1231.74305</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>1981.166</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0.5166000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>182.6987</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>712.115</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>99.74454</v>
+        <v>99.74454000000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>3.28823</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>7.65329</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1.434</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>3057.40388</v>
@@ -2024,7 +2065,7 @@
         <v>3634.09842</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5173.41373</v>
+        <v>5545.050649999999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>9364.812790000002</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>14668.6419</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>45427.286</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>407.84939</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>736.7409699999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>999.0876699999999</v>
+        <v>999.08767</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>2079.70899</v>
@@ -2138,7 +2194,7 @@
         <v>1316.87437</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5412.6903</v>
+        <v>5412.690300000001</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>3010.88083</v>
@@ -2147,16 +2203,21 @@
         <v>21911.03236</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3453.909149999999</v>
+        <v>3453.90915</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4699.97991</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4692.61091</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>7816.347</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>3494.89801</v>
@@ -2180,7 +2241,7 @@
         <v>13622.01008</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>14363.45931</v>
+        <v>15044.96898</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>11927.6625</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>18475.2804</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>44193.11</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>5.12711</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>117.49756</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>170.943</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>307.05892</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>812.61792</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1602.223</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,14 +2384,19 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3127.403800000001</v>
+        <v>3127.4038</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>1186.12563</v>
@@ -2336,7 +2417,7 @@
         <v>9069.319289999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11061.62677</v>
+        <v>11743.13644</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>10080.26487</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>15766.55998</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>41035.875</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.14784</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>221.42649</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>55.16034000000001</v>
@@ -2444,19 +2540,19 @@
         <v>390.54366</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>442.88423</v>
+        <v>442.8842300000001</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>388.15531</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4296.846979999999</v>
+        <v>4296.84698</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>469.33018</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>738.0618099999999</v>
+        <v>738.06181</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>1130.33486</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>1557.17845</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>1384.069</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>3335.29064</v>
@@ -2498,16 +2599,21 @@
         <v>15955.60654</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>42640.72896</v>
+        <v>42641.14341</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>38222.00866</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>38241.91444</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>44852.496</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>3311.98186</v>
@@ -2516,7 +2622,7 @@
         <v>2629.18394</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3707.96762</v>
+        <v>3707.967619999999</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>6032.56009</v>
@@ -2537,16 +2643,21 @@
         <v>12724.51443</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>32519.98442</v>
+        <v>32520.39887</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>22484.033</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>22503.93878</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>24036.39</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>23.30878</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>15737.97566</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>20816.106</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>5297.45606</v>
@@ -2594,7 +2710,7 @@
         <v>11995.5805</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>7051.02208</v>
+        <v>7051.022080000001</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>10576.84656</v>
@@ -2606,31 +2722,36 @@
         <v>15219.71167</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>15866.42743</v>
+        <v>15861.20337</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>15266.72459</v>
+        <v>14956.55767</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>44371.75012999999</v>
+        <v>44371.75013</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-4073.15225</v>
+        <v>-4838.342340000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>43504.65083</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>42688.45693</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>81266.003</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>726.47366</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>835.91727</v>
+        <v>835.9172700000001</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>1533.29654</v>
@@ -2645,25 +2766,30 @@
         <v>1383.23779</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>985.12488</v>
+        <v>985.1248800000001</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>2259.6623</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5691.941890000001</v>
+        <v>5691.941889999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3535.11501</v>
+        <v>3543.29908</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6152.608470000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>6159.582909999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>5679.434</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.00848</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>13.12287</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>726.46518</v>
+        <v>726.4651799999999</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>831.63422</v>
@@ -2723,31 +2854,36 @@
         <v>1373.23779</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>975.12488</v>
+        <v>975.1248800000001</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>2259.6623</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5216.861690000001</v>
+        <v>5216.86169</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3526.24584</v>
+        <v>3534.42991</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6139.4856</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>6146.46004</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>5679.434</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>674.18867</v>
+        <v>674.1886699999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>747.4303000000001</v>
+        <v>747.4302999999999</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>11786.27125</v>
@@ -2771,16 +2907,21 @@
         <v>2691.47187</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>11539.08807</v>
+        <v>11540.2733</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3579.61995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3595.25959</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3712.855</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>57.3153</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>584.4830400000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>782.357</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>0.05804</v>
@@ -2846,22 +2992,27 @@
         <v>144.69707</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7.11596</v>
+        <v>7.115959999999999</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>119.17113</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>68.42583</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>68.42582999999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>172.27</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>616.8153300000001</v>
+        <v>616.8153299999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>683.04776</v>
@@ -2870,7 +3021,7 @@
         <v>3917.67468</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>754.82889</v>
+        <v>754.8288899999999</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>1844.38547</v>
@@ -2888,19 +3039,24 @@
         <v>2684.35591</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>11116.31569</v>
+        <v>11117.50092</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2926.71108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2942.35072</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2758.228</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5349.741049999999</v>
+        <v>5349.74105</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>12084.06747</v>
@@ -2918,25 +3074,30 @@
         <v>12931.14716</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>14930.3348</v>
+        <v>14925.11074</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>11681.19455</v>
+        <v>11371.02763</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>47372.22015</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-12077.12531</v>
+        <v>-12835.31656</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>46077.63935</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>45252.78025</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>83232.58199999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1072.36896</v>
@@ -2951,7 +3112,7 @@
         <v>2291.4354</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4337.40719</v>
+        <v>4337.407190000001</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>3354.21787</v>
@@ -2966,19 +3127,24 @@
         <v>3875.73522</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3614.10098</v>
+        <v>3616.37018</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>5351.22225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>5356.78921</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>5503.868</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4277.372090000001</v>
+        <v>4277.37209</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>10469.61953</v>
@@ -2996,22 +3162,25 @@
         <v>9576.929289999998</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>12522.56625</v>
+        <v>12517.34219</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>8828.02313</v>
+        <v>8517.856210000002</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>43496.48493</v>
+        <v>43496.48493000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-15691.22629</v>
+        <v>-16451.68674</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>40726.41709999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>39895.99103999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>77728.71400000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>133</v>
@@ -3050,22 +3222,25 @@
         <v>160</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>211</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>257</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>